--- a/DCS_Missions/DCS_Maps/Syria/RANGE/AG/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Syria/RANGE/AG/Kneeboards/presets.xlsx
@@ -1,40 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\DCS_MISSIONS\DCS_Missions\DCS_Maps\Syria\SEAD\SA_2\Kneeboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\DCS_MISSIONS\DCS_Missions\DCS_Maps\Syria\RANGE\AG\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F59751-628D-47EB-BDCD-94E0E8157A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D886F8B6-43A8-4761-AC37-379EE990457E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hornet 1" sheetId="4" r:id="rId1"/>
-    <sheet name="Hornet 2" sheetId="6" r:id="rId2"/>
-    <sheet name="Squid 1" sheetId="8" r:id="rId3"/>
-    <sheet name="Squid 2" sheetId="7" r:id="rId4"/>
-    <sheet name="Joker 1" sheetId="10" r:id="rId5"/>
-    <sheet name="Joker 2" sheetId="9" r:id="rId6"/>
-    <sheet name="Enfield-1" sheetId="5" r:id="rId7"/>
-    <sheet name="Colt 2" sheetId="3" r:id="rId8"/>
-    <sheet name="Colt 1" sheetId="2" r:id="rId9"/>
-    <sheet name="Apache-1" sheetId="1" r:id="rId10"/>
+    <sheet name="VIPER" sheetId="11" r:id="rId1"/>
+    <sheet name="Hornet 1" sheetId="4" r:id="rId2"/>
+    <sheet name="Hornet 2" sheetId="6" r:id="rId3"/>
+    <sheet name="Squid 1" sheetId="8" r:id="rId4"/>
+    <sheet name="Squid 2" sheetId="7" r:id="rId5"/>
+    <sheet name="Joker 1" sheetId="10" r:id="rId6"/>
+    <sheet name="Joker 2" sheetId="9" r:id="rId7"/>
+    <sheet name="Enfield-1" sheetId="5" r:id="rId8"/>
+    <sheet name="Colt 2" sheetId="3" r:id="rId9"/>
+    <sheet name="Colt 1" sheetId="2" r:id="rId10"/>
+    <sheet name="Apache-1" sheetId="1" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'Apache-1'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'Colt 1'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Colt 2'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Enfield-1'!$D$3:$I$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hornet 1'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Hornet 2'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Joker 1'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Joker 2'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Squid 1'!$D$3:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Squid 2'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'Apache-1'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'Colt 1'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Colt 2'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Enfield-1'!$D$3:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Hornet 1'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Hornet 2'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Joker 1'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Joker 2'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Squid 1'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Squid 2'!$D$3:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">VIPER!$D$3:$J$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="183">
   <si>
     <t>ARC-186</t>
   </si>
@@ -527,13 +529,91 @@
   </si>
   <si>
     <t>JOKER 2 / FAKIR</t>
+  </si>
+  <si>
+    <t>F-16</t>
+  </si>
+  <si>
+    <t>ARC-222</t>
+  </si>
+  <si>
+    <t>225/339.97</t>
+  </si>
+  <si>
+    <t>30/155.97</t>
+  </si>
+  <si>
+    <t>Texaco AAR</t>
+  </si>
+  <si>
+    <t>"Texaco AAR" - TACAN 52 Y</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>LCRA ATIS</t>
+  </si>
+  <si>
+    <t>339.85</t>
+  </si>
+  <si>
+    <t>LCRA Tower</t>
+  </si>
+  <si>
+    <t>LCRA Ground</t>
+  </si>
+  <si>
+    <t>240.10</t>
+  </si>
+  <si>
+    <t>LCRA Radar</t>
+  </si>
+  <si>
+    <t>235.05</t>
+  </si>
+  <si>
+    <t>270.10</t>
+  </si>
+  <si>
+    <t>270.20</t>
+  </si>
+  <si>
+    <t>Viper</t>
+  </si>
+  <si>
+    <t>Jedi</t>
+  </si>
+  <si>
+    <t>Hornet</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>271.10</t>
+  </si>
+  <si>
+    <t>271.20</t>
+  </si>
+  <si>
+    <t>121.5</t>
+  </si>
+  <si>
+    <t>Guard</t>
+  </si>
+  <si>
+    <t>Darkstar C3I</t>
+  </si>
+  <si>
+    <t>VIPER/JEDI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +707,28 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -911,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1324,6 +1426,30 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -1644,6 +1770,1337 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D402C37-66B5-4257-A1F7-F7996E4A697B}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="D2:T36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="3.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D3" s="141" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="142"/>
+      <c r="F3" s="141" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="142"/>
+    </row>
+    <row r="4" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="143"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="144"/>
+    </row>
+    <row r="5" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D6" s="152">
+        <v>1</v>
+      </c>
+      <c r="E6" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="154" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="152">
+        <v>1</v>
+      </c>
+      <c r="H6" s="153" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="154" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D7" s="155">
+        <v>2</v>
+      </c>
+      <c r="E7" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="155">
+        <v>2</v>
+      </c>
+      <c r="H7" s="156"/>
+      <c r="I7" s="157"/>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D8" s="155">
+        <v>3</v>
+      </c>
+      <c r="E8" s="156" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="155">
+        <v>3</v>
+      </c>
+      <c r="H8" s="156"/>
+      <c r="I8" s="157"/>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D9" s="155">
+        <v>4</v>
+      </c>
+      <c r="E9" s="156" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="155">
+        <v>4</v>
+      </c>
+      <c r="H9" s="156"/>
+      <c r="I9" s="157"/>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D10" s="155">
+        <v>5</v>
+      </c>
+      <c r="E10" s="156"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="155">
+        <v>5</v>
+      </c>
+      <c r="H10" s="156"/>
+      <c r="I10" s="157"/>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D11" s="155">
+        <v>6</v>
+      </c>
+      <c r="E11" s="156" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="157" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="155">
+        <v>6</v>
+      </c>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D12" s="155">
+        <v>7</v>
+      </c>
+      <c r="E12" s="156"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="155">
+        <v>7</v>
+      </c>
+      <c r="H12" s="156"/>
+      <c r="I12" s="157"/>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D13" s="155">
+        <v>8</v>
+      </c>
+      <c r="E13" s="156"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="155">
+        <v>8</v>
+      </c>
+      <c r="H13" s="156"/>
+      <c r="I13" s="157"/>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D14" s="155">
+        <v>9</v>
+      </c>
+      <c r="E14" s="156"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="155">
+        <v>9</v>
+      </c>
+      <c r="H14" s="156"/>
+      <c r="I14" s="157"/>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D15" s="155">
+        <v>10</v>
+      </c>
+      <c r="E15" s="156"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="155">
+        <v>10</v>
+      </c>
+      <c r="H15" s="156"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D16" s="155">
+        <v>11</v>
+      </c>
+      <c r="E16" s="156"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="155">
+        <v>11</v>
+      </c>
+      <c r="H16" s="156"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="57"/>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D17" s="155">
+        <v>12</v>
+      </c>
+      <c r="E17" s="156"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="155">
+        <v>12</v>
+      </c>
+      <c r="H17" s="156"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D18" s="155">
+        <v>13</v>
+      </c>
+      <c r="E18" s="156" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="157" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="155">
+        <v>13</v>
+      </c>
+      <c r="H18" s="156"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="57"/>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D19" s="155">
+        <v>14</v>
+      </c>
+      <c r="E19" s="156"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="155">
+        <v>14</v>
+      </c>
+      <c r="H19" s="156"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="57"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D20" s="155">
+        <v>15</v>
+      </c>
+      <c r="E20" s="156"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="155">
+        <v>15</v>
+      </c>
+      <c r="H20" s="156"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D21" s="155">
+        <v>16</v>
+      </c>
+      <c r="E21" s="156"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="155">
+        <v>16</v>
+      </c>
+      <c r="H21" s="156"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D22" s="155">
+        <v>17</v>
+      </c>
+      <c r="E22" s="156"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="155">
+        <v>17</v>
+      </c>
+      <c r="H22" s="156"/>
+      <c r="I22" s="157"/>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D23" s="155">
+        <v>18</v>
+      </c>
+      <c r="E23" s="156" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="157" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="155">
+        <v>18</v>
+      </c>
+      <c r="H23" s="156"/>
+      <c r="I23" s="157"/>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D24" s="155">
+        <v>19</v>
+      </c>
+      <c r="E24" s="156" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="157" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="155">
+        <v>19</v>
+      </c>
+      <c r="H24" s="156" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" s="157" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D25" s="155">
+        <v>20</v>
+      </c>
+      <c r="E25" s="156" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="157" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="155">
+        <v>20</v>
+      </c>
+      <c r="H25" s="156"/>
+      <c r="I25" s="157"/>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D26" s="77"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="79"/>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D27" s="54"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="55"/>
+      <c r="T27" s="102"/>
+    </row>
+    <row r="28" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="29"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="4:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="52"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="147" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="148"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D30" s="53"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="118"/>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D31" s="53"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="118"/>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.35">
+      <c r="D32" s="53"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="118"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D33" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="118"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D34" s="53"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="118"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D35" s="122"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="124"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="120"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="H29:I29"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553D6998-EDAA-4E2E-8D9F-BC4554B6A292}">
+  <dimension ref="C2:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D3" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="142"/>
+      <c r="F3" s="141" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="142"/>
+    </row>
+    <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="143"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="144"/>
+    </row>
+    <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="68"/>
+      <c r="I5" s="71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="78">
+        <v>1</v>
+      </c>
+      <c r="H6" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="36">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D8" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="37">
+        <v>3</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D9" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="62"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="34">
+        <v>4</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D10" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="34">
+        <v>5</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D11" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="34">
+        <v>6</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D12" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="34">
+        <v>7</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D13" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="62"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="34">
+        <v>8</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D14" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="34">
+        <v>9</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="62"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="38">
+        <v>10</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C16" s="57"/>
+      <c r="D16" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="58"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C17" s="57"/>
+      <c r="D17" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="60"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="58"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C18" s="57"/>
+      <c r="D18" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="62"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C19" s="57"/>
+      <c r="D19" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="62"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="58"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C20" s="57"/>
+      <c r="D20" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="62"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="58"/>
+    </row>
+    <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="57"/>
+      <c r="D21" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="58"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C22" s="57"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="58"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C23" s="57"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="58"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C24" s="57"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="58"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C25" s="57"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="58"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D26" s="54"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D27" s="54"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="29"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="147" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="148"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D30" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D31" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D33" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02854FB9-005E-4967-BB26-79DE4C6684D3}">
+  <dimension ref="D2:I36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D3" s="141" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="142"/>
+      <c r="F3" s="141" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="142"/>
+    </row>
+    <row r="4" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="143"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="144"/>
+    </row>
+    <row r="5" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="34">
+        <v>1</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D7" s="33">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="36">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D8" s="33">
+        <v>3</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="37">
+        <v>3</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D9" s="34">
+        <v>4</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="34">
+        <v>4</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D10" s="34">
+        <v>5</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="34">
+        <v>5</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D11" s="34">
+        <v>6</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="34">
+        <v>6</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D12" s="34">
+        <v>7</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="34">
+        <v>7</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D13" s="34">
+        <v>8</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="34">
+        <v>8</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D14" s="34">
+        <v>9</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="34">
+        <v>9</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="35">
+        <v>10</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="38">
+        <v>10</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F16" s="29"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D17" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="51"/>
+      <c r="I17" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D18" s="32">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="34">
+        <v>1</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D19" s="36">
+        <v>2</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="36">
+        <v>2</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D20" s="37">
+        <v>3</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="37">
+        <v>3</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D21" s="34">
+        <v>4</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="34">
+        <v>4</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D22" s="39">
+        <v>5</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="34">
+        <v>5</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D23" s="34">
+        <v>6</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="34">
+        <v>6</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D24" s="39">
+        <v>7</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="34">
+        <v>7</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D25" s="34">
+        <v>8</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="34">
+        <v>8</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D26" s="34">
+        <v>9</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="34">
+        <v>9</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="38">
+        <v>10</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="38">
+        <v>10</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="29"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="147" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="148"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D30" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D31" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D33" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I4"/>
+    <mergeCell ref="H29:I29"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F51AC91-C073-48F1-A978-1644164E838A}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -2221,476 +3678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02854FB9-005E-4967-BB26-79DE4C6684D3}">
-  <dimension ref="D2:I36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="141" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="142"/>
-      <c r="F3" s="141" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="142"/>
-    </row>
-    <row r="4" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="143"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="144"/>
-    </row>
-    <row r="5" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="32">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="34">
-        <v>1</v>
-      </c>
-      <c r="H6" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="81" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="33">
-        <v>2</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="36">
-        <v>2</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D8" s="33">
-        <v>3</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="37">
-        <v>3</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="34">
-        <v>4</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="34">
-        <v>4</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="34">
-        <v>5</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="34">
-        <v>5</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D11" s="34">
-        <v>6</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="34">
-        <v>6</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D12" s="34">
-        <v>7</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="34">
-        <v>7</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="34">
-        <v>8</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="34">
-        <v>8</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D14" s="34">
-        <v>9</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="34">
-        <v>9</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="35">
-        <v>10</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="38">
-        <v>10</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F16" s="29"/>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D17" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D18" s="32">
-        <v>1</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="34">
-        <v>1</v>
-      </c>
-      <c r="H18" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="81" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D19" s="36">
-        <v>2</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="36">
-        <v>2</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D20" s="37">
-        <v>3</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="37">
-        <v>3</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D21" s="34">
-        <v>4</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="34">
-        <v>4</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D22" s="39">
-        <v>5</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="34">
-        <v>5</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D23" s="34">
-        <v>6</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="34">
-        <v>6</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D24" s="39">
-        <v>7</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="34">
-        <v>7</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D25" s="34">
-        <v>8</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="34">
-        <v>8</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D26" s="34">
-        <v>9</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="34">
-        <v>9</v>
-      </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="38">
-        <v>10</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="38">
-        <v>10</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="147" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="148"/>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D30" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D31" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D33" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="H29:I29"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DF6396-7560-41A9-842B-A6BEA0355F17}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -3271,7 +4259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1264E4F-7811-4853-8206-14AA507CE491}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3849,15 +4837,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF9EF9B-2C91-487F-A349-9152EEADA6CA}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="D2:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:J36"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4431,7 +5419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BA5DEB-11D3-4049-8FF8-B6823915F6DF}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -5008,7 +5996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7265255A-8B0D-4A28-9AE4-B9F76E585E9E}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -5589,7 +6577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02678EA-46E4-4A82-8844-3A8C9E213DB4}">
   <dimension ref="D2:I36"/>
   <sheetViews>
@@ -6048,7 +7036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB44D7-81E5-4063-8B60-ACF5218F804D}">
   <dimension ref="C2:J36"/>
   <sheetViews>
@@ -6497,407 +7485,4 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553D6998-EDAA-4E2E-8D9F-BC4554B6A292}">
-  <dimension ref="C2:J36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D3" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="142"/>
-      <c r="F3" s="141" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="142"/>
-    </row>
-    <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="143"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="144"/>
-    </row>
-    <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D6" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="78">
-        <v>1</v>
-      </c>
-      <c r="H6" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="89" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D7" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="36">
-        <v>2</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="37">
-        <v>3</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D9" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="34">
-        <v>4</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D10" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="34">
-        <v>5</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D11" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="34">
-        <v>6</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D12" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="34">
-        <v>7</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D13" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="34">
-        <v>8</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D14" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="34">
-        <v>9</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="38">
-        <v>10</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C16" s="57"/>
-      <c r="D16" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="58"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C17" s="57"/>
-      <c r="D17" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="58"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C18" s="57"/>
-      <c r="D18" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="58"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C19" s="57"/>
-      <c r="D19" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="58"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C20" s="57"/>
-      <c r="D20" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="58"/>
-    </row>
-    <row r="21" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="57"/>
-      <c r="D21" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="58"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C22" s="57"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="58"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C23" s="57"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="58"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C24" s="57"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="58"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="C25" s="57"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="58"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D26" s="54"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D27" s="54"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="29"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="147" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="148"/>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D30" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D31" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D33" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:I4"/>
-    <mergeCell ref="H29:I29"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="6" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/DCS_Missions/DCS_Maps/Syria/RANGE/AG/Kneeboards/presets.xlsx
+++ b/DCS_Missions/DCS_Maps/Syria/RANGE/AG/Kneeboards/presets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\DCS_MISSIONS\DCS_Missions\DCS_Maps\Syria\RANGE\AG\Kneeboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5829595C-A249-4686-A5CD-DCDFA57CD59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD808D6-2C49-4236-A6EA-635BACC8216B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{0FCC770A-A480-4475-A2DE-100B627674D7}"/>
   </bookViews>
@@ -605,27 +605,6 @@
     <t>GUARD</t>
   </si>
   <si>
-    <t>JAMES</t>
-  </si>
-  <si>
-    <t>ROBERT</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>WILLIAM</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>MATTHEW</t>
-  </si>
-  <si>
-    <t>ANTHONY</t>
-  </si>
-  <si>
     <t>130.70</t>
   </si>
   <si>
@@ -714,6 +693,27 @@
   </si>
   <si>
     <t>CVN-75</t>
+  </si>
+  <si>
+    <t>NATASHA</t>
+  </si>
+  <si>
+    <t>KATIUSHA</t>
+  </si>
+  <si>
+    <t>SVIETLANA</t>
+  </si>
+  <si>
+    <t>OLGA</t>
+  </si>
+  <si>
+    <t>EKATERINA</t>
+  </si>
+  <si>
+    <t>SASHA</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1607,9 +1607,6 @@
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1631,6 +1628,60 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1657,60 +1708,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2069,7 +2066,7 @@
   <dimension ref="D2:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2085,83 +2082,83 @@
   <sheetData>
     <row r="2" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D3" s="199" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="200"/>
-      <c r="F3" s="199" t="s">
+      <c r="D3" s="216" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="217"/>
+      <c r="F3" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="200"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="217"/>
     </row>
     <row r="4" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="201"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="202"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="221"/>
+      <c r="L4" s="219"/>
     </row>
     <row r="5" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="44" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="192" t="s">
-        <v>201</v>
-      </c>
-      <c r="H5" s="192"/>
+        <v>198</v>
+      </c>
+      <c r="G5" s="191" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="191"/>
       <c r="I5" s="46" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K5" s="45" t="s">
         <v>65</v>
       </c>
       <c r="L5" s="46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D6" s="198">
+        <v>1</v>
+      </c>
+      <c r="E6" s="199" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="200" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D6" s="208">
+      <c r="G6" s="198">
         <v>1</v>
       </c>
-      <c r="E6" s="209" t="s">
-        <v>211</v>
-      </c>
-      <c r="F6" s="210" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6" s="208">
+      <c r="H6" s="199" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="200" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="198">
         <v>1</v>
       </c>
-      <c r="H6" s="209" t="s">
-        <v>211</v>
-      </c>
-      <c r="I6" s="210" t="s">
-        <v>212</v>
-      </c>
-      <c r="J6" s="208">
-        <v>1</v>
-      </c>
-      <c r="K6" s="209" t="s">
-        <v>211</v>
-      </c>
-      <c r="L6" s="210" t="s">
-        <v>212</v>
+      <c r="K6" s="199" t="s">
+        <v>204</v>
+      </c>
+      <c r="L6" s="200" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.35">
@@ -2199,31 +2196,31 @@
       <c r="L8" s="109"/>
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D9" s="221">
+      <c r="D9" s="211">
         <v>4</v>
       </c>
-      <c r="E9" s="222" t="s">
+      <c r="E9" s="212" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="223" t="s">
+      <c r="F9" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="221">
+      <c r="G9" s="211">
         <v>4</v>
       </c>
-      <c r="H9" s="222" t="s">
+      <c r="H9" s="212" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="223" t="s">
+      <c r="I9" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="221">
+      <c r="J9" s="211">
         <v>4</v>
       </c>
-      <c r="K9" s="222" t="s">
+      <c r="K9" s="212" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="223" t="s">
+      <c r="L9" s="213" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2235,7 +2232,7 @@
         <v>104</v>
       </c>
       <c r="F10" s="109" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G10" s="107">
         <v>5</v>
@@ -2244,7 +2241,7 @@
         <v>104</v>
       </c>
       <c r="I10" s="109" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J10" s="107">
         <v>5</v>
@@ -2253,7 +2250,7 @@
         <v>104</v>
       </c>
       <c r="L10" s="109" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="4:12" x14ac:dyDescent="0.35">
@@ -2261,28 +2258,28 @@
         <v>6</v>
       </c>
       <c r="E11" s="118" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F11" s="119" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G11" s="117">
         <v>6</v>
       </c>
       <c r="H11" s="118" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I11" s="119" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J11" s="117">
         <v>6</v>
       </c>
       <c r="K11" s="118" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L11" s="119" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="4:12" x14ac:dyDescent="0.35">
@@ -2333,13 +2330,13 @@
       <c r="I13" s="127" t="s">
         <v>138</v>
       </c>
-      <c r="J13" s="217">
+      <c r="J13" s="207">
         <v>8</v>
       </c>
-      <c r="K13" s="218" t="s">
+      <c r="K13" s="208" t="s">
         <v>125</v>
       </c>
-      <c r="L13" s="219" t="s">
+      <c r="L13" s="209" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2362,13 +2359,13 @@
       <c r="I14" s="127" t="s">
         <v>139</v>
       </c>
-      <c r="J14" s="217">
+      <c r="J14" s="207">
         <v>9</v>
       </c>
-      <c r="K14" s="218" t="s">
+      <c r="K14" s="208" t="s">
         <v>126</v>
       </c>
-      <c r="L14" s="219" t="s">
+      <c r="L14" s="209" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2391,13 +2388,13 @@
       <c r="I15" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="J15" s="217">
+      <c r="J15" s="207">
         <v>10</v>
       </c>
-      <c r="K15" s="218" t="s">
+      <c r="K15" s="208" t="s">
         <v>127</v>
       </c>
-      <c r="L15" s="220" t="s">
+      <c r="L15" s="210" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2420,13 +2417,13 @@
       <c r="I16" s="127" t="s">
         <v>141</v>
       </c>
-      <c r="J16" s="217">
+      <c r="J16" s="207">
         <v>11</v>
       </c>
-      <c r="K16" s="218" t="s">
+      <c r="K16" s="208" t="s">
         <v>128</v>
       </c>
-      <c r="L16" s="219" t="s">
+      <c r="L16" s="209" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2449,34 +2446,34 @@
       <c r="I17" s="127" t="s">
         <v>142</v>
       </c>
-      <c r="J17" s="217">
+      <c r="J17" s="207">
         <v>12</v>
       </c>
-      <c r="K17" s="218" t="s">
+      <c r="K17" s="208" t="s">
         <v>129</v>
       </c>
-      <c r="L17" s="219" t="s">
+      <c r="L17" s="209" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D18" s="224">
+      <c r="D18" s="214">
         <v>13</v>
       </c>
       <c r="E18" s="182" t="s">
         <v>165</v>
       </c>
       <c r="F18" s="183" t="s">
-        <v>183</v>
-      </c>
-      <c r="G18" s="224">
+        <v>213</v>
+      </c>
+      <c r="G18" s="214">
         <v>13</v>
       </c>
       <c r="H18" s="182" t="s">
         <v>165</v>
       </c>
       <c r="I18" s="183" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="J18" s="181">
         <v>13</v>
@@ -2485,27 +2482,27 @@
         <v>165</v>
       </c>
       <c r="L18" s="183" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D19" s="224">
+      <c r="D19" s="214">
         <v>14</v>
       </c>
       <c r="E19" s="182" t="s">
         <v>166</v>
       </c>
       <c r="F19" s="183" t="s">
-        <v>184</v>
-      </c>
-      <c r="G19" s="224">
+        <v>214</v>
+      </c>
+      <c r="G19" s="214">
         <v>14</v>
       </c>
       <c r="H19" s="182" t="s">
         <v>166</v>
       </c>
       <c r="I19" s="183" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="J19" s="181">
         <v>14</v>
@@ -2514,27 +2511,27 @@
         <v>166</v>
       </c>
       <c r="L19" s="183" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D20" s="224">
+      <c r="D20" s="214">
         <v>15</v>
       </c>
       <c r="E20" s="182" t="s">
         <v>167</v>
       </c>
       <c r="F20" s="183" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" s="224">
+        <v>215</v>
+      </c>
+      <c r="G20" s="214">
         <v>15</v>
       </c>
       <c r="H20" s="182" t="s">
         <v>167</v>
       </c>
       <c r="I20" s="183" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="J20" s="181">
         <v>15</v>
@@ -2543,56 +2540,56 @@
         <v>167</v>
       </c>
       <c r="L20" s="183" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D21" s="211">
+      <c r="D21" s="201">
         <v>16</v>
       </c>
-      <c r="E21" s="212" t="s">
-        <v>213</v>
-      </c>
-      <c r="F21" s="213" t="s">
+      <c r="E21" s="202" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="203" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="211">
+      <c r="G21" s="201">
         <v>16</v>
       </c>
-      <c r="H21" s="212" t="s">
-        <v>213</v>
-      </c>
-      <c r="I21" s="213" t="s">
+      <c r="H21" s="202" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="203" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="211">
+      <c r="J21" s="201">
         <v>16</v>
       </c>
-      <c r="K21" s="212" t="s">
-        <v>213</v>
-      </c>
-      <c r="L21" s="213" t="s">
+      <c r="K21" s="202" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" s="203" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D22" s="224">
+      <c r="D22" s="214">
         <v>17</v>
       </c>
       <c r="E22" s="182" t="s">
         <v>168</v>
       </c>
       <c r="F22" s="183" t="s">
-        <v>186</v>
-      </c>
-      <c r="G22" s="224">
+        <v>216</v>
+      </c>
+      <c r="G22" s="214">
         <v>17</v>
       </c>
       <c r="H22" s="182" t="s">
         <v>168</v>
       </c>
       <c r="I22" s="183" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="J22" s="181">
         <v>17</v>
@@ -2601,27 +2598,27 @@
         <v>168</v>
       </c>
       <c r="L22" s="183" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D23" s="224">
+      <c r="D23" s="214">
         <v>18</v>
       </c>
       <c r="E23" s="182" t="s">
         <v>169</v>
       </c>
       <c r="F23" s="183" t="s">
-        <v>187</v>
-      </c>
-      <c r="G23" s="224">
+        <v>217</v>
+      </c>
+      <c r="G23" s="214">
         <v>18</v>
       </c>
       <c r="H23" s="182" t="s">
         <v>169</v>
       </c>
       <c r="I23" s="183" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="J23" s="181">
         <v>18</v>
@@ -2630,94 +2627,94 @@
         <v>169</v>
       </c>
       <c r="L23" s="183" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D24" s="214">
+      <c r="D24" s="204">
         <v>19</v>
       </c>
-      <c r="E24" s="215" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="216" t="s">
-        <v>215</v>
-      </c>
-      <c r="G24" s="214">
+      <c r="E24" s="205" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" s="206" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" s="204">
         <v>19</v>
       </c>
-      <c r="H24" s="215" t="s">
-        <v>214</v>
-      </c>
-      <c r="I24" s="216" t="s">
-        <v>215</v>
-      </c>
-      <c r="J24" s="214">
+      <c r="H24" s="205" t="s">
+        <v>207</v>
+      </c>
+      <c r="I24" s="206" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" s="204">
         <v>19</v>
       </c>
-      <c r="K24" s="215" t="s">
-        <v>214</v>
-      </c>
-      <c r="L24" s="216" t="s">
-        <v>215</v>
+      <c r="K24" s="205" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" s="206" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D25" s="224">
+      <c r="D25" s="214">
         <v>20</v>
       </c>
       <c r="E25" s="182" t="s">
         <v>170</v>
       </c>
       <c r="F25" s="183" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" s="224">
+        <v>218</v>
+      </c>
+      <c r="G25" s="214">
         <v>20</v>
       </c>
       <c r="H25" s="182" t="s">
         <v>170</v>
       </c>
       <c r="I25" s="183" t="s">
-        <v>188</v>
-      </c>
-      <c r="J25" s="224">
+        <v>218</v>
+      </c>
+      <c r="J25" s="214">
         <v>20</v>
       </c>
       <c r="K25" s="182" t="s">
         <v>170</v>
       </c>
       <c r="L25" s="183" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D26" s="224">
+      <c r="D26" s="214">
         <v>21</v>
       </c>
       <c r="E26" s="182" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F26" s="183" t="s">
-        <v>189</v>
-      </c>
-      <c r="G26" s="224">
+        <v>219</v>
+      </c>
+      <c r="G26" s="214">
         <v>21</v>
       </c>
       <c r="H26" s="182" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I26" s="183" t="s">
-        <v>189</v>
-      </c>
-      <c r="J26" s="224">
+        <v>219</v>
+      </c>
+      <c r="J26" s="214">
         <v>21</v>
       </c>
       <c r="K26" s="182" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="L26" s="183" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="M26" s="111"/>
     </row>
@@ -2749,7 +2746,7 @@
       <c r="L27" s="149" t="s">
         <v>145</v>
       </c>
-      <c r="M27" s="205"/>
+      <c r="M27" s="222"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D28" s="147">
@@ -2779,7 +2776,7 @@
       <c r="L28" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="M28" s="205"/>
+      <c r="M28" s="222"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D29" s="147">
@@ -2809,7 +2806,7 @@
       <c r="L29" s="149" t="s">
         <v>147</v>
       </c>
-      <c r="M29" s="205"/>
+      <c r="M29" s="222"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D30" s="147">
@@ -2839,7 +2836,7 @@
       <c r="L30" s="149" t="s">
         <v>148</v>
       </c>
-      <c r="M30" s="205"/>
+      <c r="M30" s="222"/>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D31" s="147">
@@ -2875,9 +2872,9 @@
       <c r="D32" s="107"/>
       <c r="E32" s="140"/>
       <c r="F32" s="141"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="194"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="193"/>
       <c r="J32" s="107">
         <v>27</v>
       </c>
@@ -2889,9 +2886,9 @@
       <c r="D33" s="107"/>
       <c r="E33" s="108"/>
       <c r="F33" s="109"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
+      <c r="G33" s="192"/>
+      <c r="H33" s="192"/>
+      <c r="I33" s="192"/>
       <c r="J33" s="107">
         <v>28</v>
       </c>
@@ -2902,9 +2899,9 @@
       <c r="D34" s="107"/>
       <c r="E34" s="108"/>
       <c r="F34" s="109"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
+      <c r="G34" s="192"/>
+      <c r="H34" s="192"/>
+      <c r="I34" s="192"/>
       <c r="J34" s="137">
         <v>29</v>
       </c>
@@ -2916,13 +2913,13 @@
       </c>
     </row>
     <row r="35" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D35" s="195"/>
-      <c r="E35" s="196"/>
-      <c r="F35" s="197"/>
-      <c r="G35" s="198"/>
-      <c r="H35" s="198"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="225">
+      <c r="D35" s="194"/>
+      <c r="E35" s="195"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="197"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="215">
         <v>30</v>
       </c>
       <c r="K35" s="138" t="s">
@@ -2963,7 +2960,7 @@
     </row>
     <row r="39" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D39" s="150" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E39" s="151"/>
       <c r="F39" s="151"/>
@@ -2971,14 +2968,14 @@
       <c r="H39" s="151"/>
       <c r="I39" s="151"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="206" t="s">
+      <c r="K39" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="207"/>
+      <c r="L39" s="224"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D40" s="152" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E40" s="153"/>
       <c r="F40" s="153"/>
@@ -2996,10 +2993,10 @@
       <c r="E41" s="160"/>
       <c r="F41" s="161"/>
       <c r="G41" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H41" s="172" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I41" s="172"/>
       <c r="J41" s="3"/>
@@ -3013,7 +3010,7 @@
       <c r="E42" s="160"/>
       <c r="F42" s="161"/>
       <c r="G42" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H42" s="172"/>
       <c r="I42" s="172"/>
@@ -3023,12 +3020,12 @@
     </row>
     <row r="43" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D43" s="159" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E43" s="160"/>
       <c r="F43" s="161"/>
       <c r="G43" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H43" s="172"/>
       <c r="I43" s="172"/>
@@ -3090,7 +3087,7 @@
   <dimension ref="C2:N36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3102,32 +3099,32 @@
   <sheetData>
     <row r="2" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D3" s="199" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="200"/>
-      <c r="F3" s="199" t="s">
+      <c r="D3" s="216" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="217"/>
+      <c r="F3" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="200"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="217"/>
     </row>
     <row r="4" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="201"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="202"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="219"/>
     </row>
     <row r="5" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="180" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="46" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G5" s="44"/>
       <c r="H5" s="45"/>
@@ -3138,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="163" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F6" s="164" t="s">
         <v>94</v>
@@ -3152,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="166" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F7" s="167" t="s">
         <v>97</v>
@@ -3166,7 +3163,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="166" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F8" s="167" t="s">
         <v>95</v>
@@ -3182,8 +3179,8 @@
       <c r="E9" s="190" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="191" t="s">
-        <v>183</v>
+      <c r="F9" s="183" t="s">
+        <v>213</v>
       </c>
       <c r="G9" s="107"/>
       <c r="H9" s="108"/>
@@ -3196,8 +3193,8 @@
       <c r="E10" s="190" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="191" t="s">
-        <v>184</v>
+      <c r="F10" s="183" t="s">
+        <v>214</v>
       </c>
       <c r="G10" s="107"/>
       <c r="H10" s="108"/>
@@ -3258,7 +3255,7 @@
       <c r="G16" s="107"/>
       <c r="H16" s="108"/>
       <c r="I16" s="110"/>
-      <c r="J16" s="205"/>
+      <c r="J16" s="222"/>
       <c r="K16" s="57"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.35">
@@ -3268,7 +3265,7 @@
       <c r="G17" s="107"/>
       <c r="H17" s="108"/>
       <c r="I17" s="109"/>
-      <c r="J17" s="205"/>
+      <c r="J17" s="222"/>
       <c r="K17" s="57"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.35">
@@ -3278,7 +3275,7 @@
       <c r="G18" s="107"/>
       <c r="H18" s="108"/>
       <c r="I18" s="109"/>
-      <c r="J18" s="205"/>
+      <c r="J18" s="222"/>
       <c r="K18" s="57"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.35">
@@ -3288,7 +3285,7 @@
       <c r="G19" s="107"/>
       <c r="H19" s="108"/>
       <c r="I19" s="109"/>
-      <c r="J19" s="205"/>
+      <c r="J19" s="222"/>
       <c r="K19" s="57"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.35">
@@ -3367,19 +3364,19 @@
     </row>
     <row r="29" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D29" s="168" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E29" s="169"/>
       <c r="F29" s="169"/>
       <c r="G29" s="188"/>
-      <c r="H29" s="206" t="s">
+      <c r="H29" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="207"/>
+      <c r="I29" s="224"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D30" s="168" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E30" s="170"/>
       <c r="F30" s="170"/>
@@ -3457,7 +3454,7 @@
   <dimension ref="C2:N36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F14"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3469,24 +3466,24 @@
   <sheetData>
     <row r="2" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D3" s="199" t="s">
+      <c r="D3" s="216" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="200"/>
-      <c r="F3" s="199" t="s">
+      <c r="E3" s="217"/>
+      <c r="F3" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="200"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="217"/>
     </row>
     <row r="4" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="201"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="202"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="219"/>
     </row>
     <row r="5" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="180" t="s">
@@ -3604,7 +3601,7 @@
         <v>165</v>
       </c>
       <c r="F13" s="183" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="G13" s="107"/>
       <c r="H13" s="108"/>
@@ -3618,7 +3615,7 @@
         <v>166</v>
       </c>
       <c r="F14" s="183" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="G14" s="107"/>
       <c r="H14" s="108"/>
@@ -3632,7 +3629,7 @@
         <v>167</v>
       </c>
       <c r="F15" s="183" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="G15" s="107"/>
       <c r="H15" s="108"/>
@@ -3648,12 +3645,12 @@
         <v>168</v>
       </c>
       <c r="F16" s="183" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="G16" s="107"/>
       <c r="H16" s="108"/>
       <c r="I16" s="110"/>
-      <c r="J16" s="205"/>
+      <c r="J16" s="222"/>
       <c r="K16" s="57"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.35">
@@ -3664,12 +3661,12 @@
         <v>169</v>
       </c>
       <c r="F17" s="183" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="G17" s="107"/>
       <c r="H17" s="108"/>
       <c r="I17" s="109"/>
-      <c r="J17" s="205"/>
+      <c r="J17" s="222"/>
       <c r="K17" s="57"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.35">
@@ -3685,7 +3682,7 @@
       <c r="G18" s="107"/>
       <c r="H18" s="108"/>
       <c r="I18" s="109"/>
-      <c r="J18" s="205"/>
+      <c r="J18" s="222"/>
       <c r="K18" s="57"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.35">
@@ -3701,7 +3698,7 @@
       <c r="G19" s="107"/>
       <c r="H19" s="108"/>
       <c r="I19" s="109"/>
-      <c r="J19" s="205"/>
+      <c r="J19" s="222"/>
       <c r="K19" s="57"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.35">
@@ -3786,7 +3783,7 @@
         <v>170</v>
       </c>
       <c r="F25" s="183" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="G25" s="107"/>
       <c r="H25" s="108"/>
@@ -3819,10 +3816,10 @@
       <c r="E29" s="187"/>
       <c r="F29" s="187"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="206" t="s">
+      <c r="H29" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="207"/>
+      <c r="I29" s="224"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D30" s="171"/>
@@ -3902,7 +3899,7 @@
   <dimension ref="C2:N36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:I8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3914,24 +3911,24 @@
   <sheetData>
     <row r="2" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="4:11" x14ac:dyDescent="0.35">
-      <c r="D3" s="199" t="s">
+      <c r="D3" s="216" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="200"/>
-      <c r="F3" s="199" t="s">
+      <c r="E3" s="217"/>
+      <c r="F3" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="200"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="217"/>
     </row>
     <row r="4" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="201"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="202"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="219"/>
     </row>
     <row r="5" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="44" t="s">
@@ -3990,7 +3987,7 @@
         <v>165</v>
       </c>
       <c r="I7" s="183" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.35">
@@ -4010,7 +4007,7 @@
         <v>166</v>
       </c>
       <c r="I8" s="183" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.35">
@@ -4028,7 +4025,7 @@
         <v>167</v>
       </c>
       <c r="I9" s="183" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.35">
@@ -4048,7 +4045,7 @@
         <v>168</v>
       </c>
       <c r="I10" s="183" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.35">
@@ -4068,7 +4065,7 @@
         <v>169</v>
       </c>
       <c r="I11" s="183" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.35">
@@ -4086,7 +4083,7 @@
         <v>170</v>
       </c>
       <c r="I12" s="183" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.35">
@@ -4103,10 +4100,10 @@
         <v>8</v>
       </c>
       <c r="H13" s="182" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I13" s="183" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.35">
@@ -4170,7 +4167,7 @@
       <c r="I16" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="205"/>
+      <c r="J16" s="222"/>
       <c r="K16" s="57"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.35">
@@ -4192,7 +4189,7 @@
       <c r="I17" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="205"/>
+      <c r="J17" s="222"/>
       <c r="K17" s="57"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.35">
@@ -4214,7 +4211,7 @@
       <c r="I18" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="205"/>
+      <c r="J18" s="222"/>
       <c r="K18" s="57"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.35">
@@ -4234,7 +4231,7 @@
         <v>171</v>
       </c>
       <c r="I19" s="109"/>
-      <c r="J19" s="205"/>
+      <c r="J19" s="222"/>
       <c r="K19" s="57"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.35">
@@ -4378,10 +4375,10 @@
       <c r="E29" s="169"/>
       <c r="F29" s="169"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="206" t="s">
+      <c r="H29" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="207"/>
+      <c r="I29" s="224"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.35">
       <c r="D30" s="168" t="s">
@@ -4400,7 +4397,7 @@
       <c r="E31" s="177"/>
       <c r="F31" s="178"/>
       <c r="G31" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H31" s="103"/>
       <c r="I31" s="104"/>
@@ -4467,7 +4464,7 @@
   <dimension ref="D2:T36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:F12"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4479,24 +4476,24 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D3" s="199" t="s">
+      <c r="D3" s="216" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="200"/>
-      <c r="F3" s="199" t="s">
+      <c r="E3" s="217"/>
+      <c r="F3" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="200"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="217"/>
     </row>
     <row r="4" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="201"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="202"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="219"/>
     </row>
     <row r="5" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="44" t="s">
@@ -4602,7 +4599,7 @@
         <v>104</v>
       </c>
       <c r="F10" s="119" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G10" s="134">
         <v>5</v>
@@ -4619,10 +4616,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="140" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F11" s="141" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G11" s="134">
         <v>6</v>
@@ -4734,7 +4731,7 @@
       <c r="I16" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="205"/>
+      <c r="J16" s="222"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D17" s="125">
@@ -4755,7 +4752,7 @@
       <c r="I17" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="205"/>
+      <c r="J17" s="222"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D18" s="142">
@@ -4776,7 +4773,7 @@
       <c r="I18" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="205"/>
+      <c r="J18" s="222"/>
     </row>
     <row r="19" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D19" s="142">
@@ -4797,7 +4794,7 @@
       <c r="I19" s="127" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="205"/>
+      <c r="J19" s="222"/>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D20" s="112">
@@ -4862,14 +4859,14 @@
       </c>
     </row>
     <row r="23" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D23" s="224">
+      <c r="D23" s="214">
         <v>18</v>
       </c>
       <c r="E23" s="182" t="s">
         <v>165</v>
       </c>
       <c r="F23" s="183" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="G23" s="112">
         <v>18</v>
@@ -4882,14 +4879,14 @@
       </c>
     </row>
     <row r="24" spans="4:20" x14ac:dyDescent="0.35">
-      <c r="D24" s="224">
+      <c r="D24" s="214">
         <v>19</v>
       </c>
       <c r="E24" s="182" t="s">
         <v>166</v>
       </c>
       <c r="F24" s="183" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="G24" s="147">
         <v>19</v>
@@ -4949,10 +4946,10 @@
       <c r="E29" s="151"/>
       <c r="F29" s="151"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="206" t="s">
+      <c r="H29" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="207"/>
+      <c r="I29" s="224"/>
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.35">
       <c r="D30" s="152" t="s">
@@ -4981,7 +4978,7 @@
       <c r="E32" s="160"/>
       <c r="F32" s="161"/>
       <c r="G32" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H32" s="103"/>
       <c r="I32" s="104"/>
@@ -4993,19 +4990,19 @@
       <c r="E33" s="160"/>
       <c r="F33" s="161"/>
       <c r="G33" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H33" s="105"/>
       <c r="I33" s="104"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" s="159" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E34" s="160"/>
       <c r="F34" s="161"/>
       <c r="G34" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H34" s="105"/>
       <c r="I34" s="104"/>
@@ -5056,24 +5053,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="199" t="s">
+      <c r="D3" s="216" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="200"/>
-      <c r="F3" s="199" t="s">
+      <c r="E3" s="217"/>
+      <c r="F3" s="216" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="200"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="217"/>
     </row>
     <row r="4" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="201"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="202"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="219"/>
     </row>
     <row r="5" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="44" t="s">
@@ -5422,10 +5419,10 @@
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="206" t="s">
+      <c r="H29" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="207"/>
+      <c r="I29" s="224"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30" s="53" t="s">
@@ -5515,24 +5512,24 @@
   <sheetData>
     <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D3" s="199" t="s">
+      <c r="D3" s="216" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="200"/>
-      <c r="F3" s="199" t="s">
+      <c r="E3" s="217"/>
+      <c r="F3" s="216" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="200"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="217"/>
     </row>
     <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="201"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="202"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="219"/>
     </row>
     <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="67" t="s">
@@ -5871,10 +5868,10 @@
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="206" t="s">
+      <c r="H29" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="207"/>
+      <c r="I29" s="224"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D30" s="53" t="s">
@@ -5966,24 +5963,24 @@
   <sheetData>
     <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="D3" s="199" t="s">
+      <c r="D3" s="216" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="200"/>
-      <c r="F3" s="199" t="s">
+      <c r="E3" s="217"/>
+      <c r="F3" s="216" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="200"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="217"/>
     </row>
     <row r="4" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="201"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="202"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="219"/>
     </row>
     <row r="5" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="44" t="s">
@@ -6274,10 +6271,10 @@
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="206" t="s">
+      <c r="H29" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="207"/>
+      <c r="I29" s="224"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D30" s="53" t="s">
@@ -6369,24 +6366,24 @@
   <sheetData>
     <row r="2" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="199" t="s">
+      <c r="D3" s="216" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="200"/>
-      <c r="F3" s="199" t="s">
+      <c r="E3" s="217"/>
+      <c r="F3" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="200"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="217"/>
     </row>
     <row r="4" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="201"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="202"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="219"/>
     </row>
     <row r="5" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="44" t="s">
@@ -6743,10 +6740,10 @@
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="206" t="s">
+      <c r="H29" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="207"/>
+      <c r="I29" s="224"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30" s="53" t="s">
